--- a/input/data yang dibutuhkan.xlsx
+++ b/input/data yang dibutuhkan.xlsx
@@ -9,13 +9,14 @@
     <sheet name="jenis armada" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="data alamat toko" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="data order toko" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summary utk modelling" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="data service gudang" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summary utk modelling" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">armada</t>
   </si>
@@ -29,6 +30,15 @@
     <t xml:space="preserve">cost_per_km</t>
   </si>
   <si>
+    <t xml:space="preserve">tersedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_titik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loading_time</t>
+  </si>
+  <si>
     <t xml:space="preserve">nama_toko</t>
   </si>
   <si>
@@ -41,34 +51,43 @@
     <t xml:space="preserve">max_armada</t>
   </si>
   <si>
-    <t xml:space="preserve">toko grayson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko makenzie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko john</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko sadeeqa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko janelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko majdi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko priyanka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko christian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko rebekah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko savannah</t>
+    <t xml:space="preserve">supplied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko prakhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ciawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko brenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko ahmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko xinyuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cibitung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko tristan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko vincent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko aaron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko sabrina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko tyler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko haazim</t>
   </si>
   <si>
     <t xml:space="preserve">order_kubikasi</t>
@@ -83,46 +102,76 @@
     <t xml:space="preserve">tanggal_kirim_max</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">13</t>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
+    <t xml:space="preserve">site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">week_day_hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">week_end_hour</t>
   </si>
   <si>
     <t xml:space="preserve">Ini adalah bentuk dataframe dan matriks yang digunakan untuk membuat modelnya</t>
   </si>
   <si>
     <t xml:space="preserve">Kita dapatkan dari proses ekstraksi dari data-data pada sheets sebelumnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data jenis armada yang ada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">berapa armada yang tersedia untuk masing-masing armada?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matriks jarak antar toko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matriks toko dan armada yang bisa melewatinya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matriks toko dan gudang yang mensupply-nya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data order yang dilakukan toko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matriks time window pemenuhan order per toko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data service yang diberikan gudang</t>
   </si>
 </sst>
 </file>
@@ -467,19 +516,37 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
-        <v>39.3166151975747</v>
+        <v>77.1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.59081767871976</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +554,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C3" t="n">
-        <v>37.1084152394906</v>
+        <v>61.1</v>
       </c>
       <c r="D3" t="n">
-        <v>4.04900988796726</v>
+        <v>9.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -501,13 +577,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C4" t="n">
-        <v>37.082044640556</v>
+        <v>106.2</v>
       </c>
       <c r="D4" t="n">
-        <v>13.0008793668821</v>
+        <v>11.6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.81</v>
       </c>
     </row>
     <row r="5">
@@ -515,13 +600,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C5" t="n">
-        <v>88.9172782772221</v>
+        <v>118.6</v>
       </c>
       <c r="D5" t="n">
-        <v>18.1875908165239</v>
+        <v>19.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -529,13 +623,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C6" t="n">
-        <v>111.394096456468</v>
+        <v>123.3</v>
       </c>
       <c r="D6" t="n">
-        <v>40.8781760022976</v>
+        <v>46.3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -554,156 +657,189 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0923257886897773</v>
+        <v>0.172045953338966</v>
       </c>
       <c r="C2" t="n">
-        <v>0.985977704171091</v>
+        <v>0.936681270133704</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.562365887220949</v>
+        <v>0.609576408285648</v>
       </c>
       <c r="C3" t="n">
-        <v>0.49080144893378</v>
+        <v>0.23544707801193</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.783211541129276</v>
+        <v>0.745267528807744</v>
       </c>
       <c r="C4" t="n">
-        <v>0.82508188043721</v>
+        <v>0.0202031468506902</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0995681849308312</v>
+        <v>0.183581887278706</v>
       </c>
       <c r="C5" t="n">
-        <v>0.582543251337484</v>
+        <v>0.615869482047856</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.691649276297539</v>
+        <v>0.607173383003101</v>
       </c>
       <c r="C6" t="n">
-        <v>0.145466336980462</v>
+        <v>0.53382606501691</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.677212965907529</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.514441624982283</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.437702713301405</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.448852183297276</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0920065762475133</v>
+        <v>0.995320464950055</v>
       </c>
       <c r="C8" t="n">
-        <v>0.163039438193664</v>
+        <v>0.913790311198682</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.499341813847423</v>
+        <v>0.256711370777339</v>
       </c>
       <c r="C9" t="n">
-        <v>0.340782005572692</v>
+        <v>0.102548060938716</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.502539060777053</v>
+        <v>0.932781838579103</v>
       </c>
       <c r="C10" t="n">
-        <v>0.538414030801505</v>
+        <v>0.231193454470485</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00825877557508647</v>
+        <v>0.511744257761165</v>
       </c>
       <c r="C11" t="n">
-        <v>0.590488758636639</v>
+        <v>0.195730235427618</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -722,189 +858,189 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9902351460187</v>
+        <v>7.27572239446454</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>29.2523098507663</v>
+        <v>33.9533711741678</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>15.2620747047476</v>
+        <v>10.9135835916968</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>10.1747164698318</v>
+        <v>15.7640651880065</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>35.6115076444112</v>
+        <v>30.3155099769356</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>36.8833472031401</v>
+        <v>12.1262039907742</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>8.90287691110279</v>
+        <v>32.7407507750904</v>
       </c>
       <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>7.63103735237382</v>
+        <v>33.9533711741678</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>35.6115076444112</v>
+        <v>30.3155099769356</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>10.1747164698318</v>
+        <v>15.7640651880065</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -923,715 +1059,843 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>29</v>
-      </c>
-      <c r="C6" t="n">
-        <v>39.3166151975747</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.59081767871976</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>35</v>
-      </c>
-      <c r="C7" t="n">
-        <v>37.1084152394906</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.04900988796726</v>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C8" t="n">
-        <v>37.082044640556</v>
+        <v>77.1</v>
       </c>
       <c r="D8" t="n">
-        <v>13.0008793668821</v>
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>61</v>
+      </c>
+      <c r="C9" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
         <v>4</v>
       </c>
-      <c r="B9" t="n">
-        <v>50</v>
-      </c>
-      <c r="C9" t="n">
-        <v>88.9172782772221</v>
-      </c>
-      <c r="D9" t="n">
-        <v>18.1875908165239</v>
+      <c r="G9" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" t="n">
-        <v>111.394096456468</v>
+        <v>106.2</v>
       </c>
       <c r="D10" t="n">
-        <v>40.8781760022976</v>
+        <v>11.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>65</v>
+      </c>
+      <c r="C11" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>0.682742424328561</v>
+        <v>66</v>
       </c>
       <c r="C12" t="n">
-        <v>0.709373377720715</v>
+        <v>123.3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.403499454815573</v>
+        <v>46.3</v>
       </c>
       <c r="E12" t="n">
-        <v>1.03230228188016</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>0.638583624303155</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>0.822938327887648</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.762849614422794</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.607114626999406</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.404325078042383</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0.682742424328561</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.400644742554194</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.471803212741597</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.368741825996102</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.13153192699545</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.573293831384753</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.162720211439644</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0764604938151644</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.563002887108329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0.709373377720715</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.400644742554194</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.725391773512664</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.685755740223243</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.510808315434465</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.957112584186938</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.56136297603321</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.401192593702611</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.809682481986751</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0.403499454815573</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.471803212741597</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.725391773512664</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.735932230451859</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.363604539232009</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.41957195708017</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.467191025524768</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.405379963596358</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.0916544561008132</v>
+      <c r="A14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.03230228188016</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>0.368741825996102</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.685755740223243</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.735932230451859</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.395641035034183</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.599900143031768</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.274099198305345</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.436085500439399</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.815516727145687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.638583624303155</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>0.13153192699545</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.510808315434465</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.363604539232009</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.395641035034183</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.448547371453279</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.124412788850445</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.110567067802097</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.4521979822199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.822938327887648</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>0.573293831384753</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.957112584186938</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.41957195708017</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.599900143031768</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.448547371453279</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.444425939892197</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.556276015687805</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.435576188128586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.762849614422794</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>0.162720211439644</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.56136297603321</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.467191025524768</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.274099198305345</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.124412788850445</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.444425939892197</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0.197657885711578</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.550922873916602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.607114626999406</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0764604938151644</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.401192593702611</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.405379963596358</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.436085500439399</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.110567067802097</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.556276015687805</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.197657885711578</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.497015872602114</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>0.404325078042383</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.563002887108329</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.809682481986751</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.0916544561008132</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.815516727145687</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.4521979822199</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.435576188128586</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.550922873916602</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.497015872602114</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0.826536321770875</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>1.080978781031</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.321019128942032</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0.592982458708359</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.658392002172752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.82359268905779</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.838419014331106</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.03751247951114</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.815109424469707</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0.826536321770875</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0.254444552093942</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.571132679349034</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0.298388663351386</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.287076054672155</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.7803512153269</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.377062174494826</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.32323341950425</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.105586728622076</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>1.080978781031</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.254444552093942</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.818724094421991</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.531863229760338</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.498901890953895</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.927914053757607</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.495447075302292</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.28227384979577</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.292135032039272</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>0.321019128942032</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0.571132679349034</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0.818724094421991</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0.431463645662232</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.503943699213682</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.864682796707452</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.518504390267126</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.842185379368001</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.533111177852508</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>0.592982458708359</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0.298388663351386</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0.531863229760338</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.431463645662232</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0726725511378427</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.543167548368289</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.555719658474488</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.444530497613756</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.351305433960411</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>0.658392002172752</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0.287076054672155</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0.498901890953895</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.503943699213682</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.0726725511378427</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.51056023555488</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.588623733472875</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.381503571119458</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.359105615672453</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>0.82359268905779</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.7803512153269</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.927914053757607</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.864682796707452</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.543167548368289</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.51056023555488</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.09711320409586</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.685455723299163</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.865711395659972</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>0.838419014331106</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0.377062174494826</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0.495447075302292</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.518504390267126</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.555719658474488</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.588623733472875</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.09711320409586</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.688201216731445</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.271522910793519</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>1.03751247951114</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0.32323341950425</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.28227384979577</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.842185379368001</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
+        <v>0.444530497613756</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.381503571119458</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.685455723299163</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.688201216731445</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.422528442079233</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.815109424469707</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.105586728622076</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.292135032039272</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.533111177852508</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.351305433960411</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.359105615672453</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.865711395659972</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.271522910793519</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.422528442079233</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="n">
-        <v>11</v>
-      </c>
-      <c r="C35" t="n">
-        <v>13.9902351460187</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" t="n">
-        <v>23</v>
-      </c>
-      <c r="C36" t="n">
-        <v>29.2523098507663</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>10</v>
+      <c r="A37" t="n">
+        <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>15.2620747047476</v>
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>11</v>
+      <c r="A38" t="n">
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>10.1747164698318</v>
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>12</v>
+      <c r="A39" t="n">
+        <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>35.6115076444112</v>
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>13</v>
+      <c r="A40" t="n">
+        <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>36.8833472031401</v>
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>14</v>
+      <c r="A41" t="n">
+        <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>8.90287691110279</v>
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>15</v>
+      <c r="A42" t="n">
+        <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>7.63103735237382</v>
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>16</v>
+      <c r="A43" t="n">
+        <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>35.6115076444112</v>
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>17</v>
+      <c r="A44" t="n">
+        <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>10.1747164698318</v>
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1642,176 +1906,10 @@
       <c r="E46" t="n">
         <v>0</v>
       </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>0</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>1</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>0</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
+      <c r="A48" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="50">
@@ -1819,234 +1917,39 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2054,46 +1957,678 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6</v>
+      </c>
+      <c r="C64" t="n">
+        <v>7.27572239446454</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="n">
+        <v>28</v>
+      </c>
+      <c r="C65" t="n">
+        <v>33.9533711741678</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" t="n">
+        <v>9</v>
+      </c>
+      <c r="C66" t="n">
+        <v>10.9135835916968</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="n">
+        <v>13</v>
+      </c>
+      <c r="C67" t="n">
+        <v>15.7640651880065</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" t="n">
+        <v>25</v>
+      </c>
+      <c r="C68" t="n">
+        <v>30.3155099769356</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" t="n">
+        <v>10</v>
+      </c>
+      <c r="C69" t="n">
+        <v>12.1262039907742</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="n">
+        <v>27</v>
+      </c>
+      <c r="C70" t="n">
+        <v>32.7407507750904</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" t="n">
+        <v>28</v>
+      </c>
+      <c r="C71" t="n">
+        <v>33.9533711741678</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" t="n">
+        <v>25</v>
+      </c>
+      <c r="C72" t="n">
+        <v>30.3155099769356</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" t="n">
+        <v>13</v>
+      </c>
+      <c r="C73" t="n">
+        <v>15.7640651880065</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C92" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/input/data yang dibutuhkan.xlsx
+++ b/input/data yang dibutuhkan.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">armada</t>
   </si>
@@ -54,40 +54,40 @@
     <t xml:space="preserve">supplied</t>
   </si>
   <si>
-    <t xml:space="preserve">toko prakhar</t>
+    <t xml:space="preserve">toko saajid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cibitung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko austin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko jesse</t>
   </si>
   <si>
     <t xml:space="preserve">ciawi</t>
   </si>
   <si>
-    <t xml:space="preserve">toko brenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko ahmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko xinyuan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cibitung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko tristan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko vincent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko aaron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko sabrina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko tyler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko haazim</t>
+    <t xml:space="preserve">toko julian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko lacrisha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko jacob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko aliyah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko heavan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko angelique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko tanandorn</t>
   </si>
   <si>
     <t xml:space="preserve">order_kubikasi</t>
@@ -102,37 +102,34 @@
     <t xml:space="preserve">tanggal_kirim_max</t>
   </si>
   <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">site</t>
@@ -177,7 +174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -496,10 +493,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -531,22 +528,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>77.1</v>
+        <v>33.4</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -554,22 +551,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>61.1</v>
+        <v>29.9</v>
       </c>
       <c r="D3" t="n">
-        <v>9.5</v>
+        <v>4.4</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -577,22 +574,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>106.2</v>
+        <v>38.4</v>
       </c>
       <c r="D4" t="n">
-        <v>11.6</v>
+        <v>17.6</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>0.81</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -600,22 +597,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C5" t="n">
-        <v>118.6</v>
+        <v>77.9</v>
       </c>
       <c r="D5" t="n">
-        <v>19.8</v>
+        <v>18.7</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="6">
@@ -623,22 +620,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C6" t="n">
-        <v>123.3</v>
+        <v>130</v>
       </c>
       <c r="D6" t="n">
-        <v>46.3</v>
+        <v>34.1</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
@@ -648,10 +645,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -677,13 +674,13 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>0.172045953338966</v>
+        <v>0.309597585117444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.936681270133704</v>
+        <v>0.285050303442404</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -694,13 +691,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.609576408285648</v>
+        <v>0.613641362870112</v>
       </c>
       <c r="C3" t="n">
-        <v>0.23544707801193</v>
+        <v>0.330991527065635</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -711,33 +708,33 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.745267528807744</v>
+        <v>0.141443371074274</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0202031468506902</v>
+        <v>0.490439971908927</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.183581887278706</v>
+        <v>0.869310907553881</v>
       </c>
       <c r="C5" t="n">
-        <v>0.615869482047856</v>
+        <v>0.363486559595913</v>
       </c>
       <c r="D5" t="n">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -745,16 +742,16 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.607173383003101</v>
+        <v>0.650160862598568</v>
       </c>
       <c r="C6" t="n">
-        <v>0.53382606501691</v>
+        <v>0.798749189823866</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -762,13 +759,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.677212965907529</v>
+        <v>0.0213577596005052</v>
       </c>
       <c r="C7" t="n">
-        <v>0.514441624982283</v>
+        <v>0.494916697964072</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -779,16 +776,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.995320464950055</v>
+        <v>0.0404844044242054</v>
       </c>
       <c r="C8" t="n">
-        <v>0.913790311198682</v>
+        <v>0.383471754612401</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -796,16 +793,16 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.256711370777339</v>
+        <v>0.0938581724185497</v>
       </c>
       <c r="C9" t="n">
-        <v>0.102548060938716</v>
+        <v>0.748582392930984</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -813,13 +810,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.932781838579103</v>
+        <v>0.569810399319977</v>
       </c>
       <c r="C10" t="n">
-        <v>0.231193454470485</v>
+        <v>0.620976618723944</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -830,16 +827,16 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.511744257761165</v>
+        <v>0.384518886916339</v>
       </c>
       <c r="C11" t="n">
-        <v>0.195730235427618</v>
+        <v>0.49481675028801</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -849,10 +846,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -878,10 +875,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>7.27572239446454</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -895,16 +892,16 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>33.9533711741678</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -912,33 +909,33 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>10.9135835916968</v>
+        <v>14.1</v>
       </c>
       <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
         <v>13</v>
       </c>
-      <c r="C5" t="n">
-        <v>15.7640651880065</v>
-      </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -946,16 +943,16 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>30.3155099769356</v>
+        <v>19.5</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -963,16 +960,16 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>12.1262039907742</v>
+        <v>17.4</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -980,16 +977,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>32.7407507750904</v>
+        <v>11.9</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -997,16 +994,16 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>33.9533711741678</v>
+        <v>17.4</v>
       </c>
       <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
         <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -1014,16 +1011,16 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>30.3155099769356</v>
+        <v>15.2</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1034,13 +1031,13 @@
         <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>15.7640651880065</v>
+        <v>14.1</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1050,27 +1047,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" t="n">
         <v>13.5</v>
@@ -1081,7 +1078,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" t="n">
         <v>13.5</v>
@@ -1097,26 +1094,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -1147,22 +1144,22 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>77.1</v>
+        <v>33.4</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="9">
@@ -1170,22 +1167,22 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>61.1</v>
+        <v>29.9</v>
       </c>
       <c r="D9" t="n">
-        <v>9.5</v>
+        <v>4.4</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="10">
@@ -1193,22 +1190,22 @@
         <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>106.2</v>
+        <v>38.4</v>
       </c>
       <c r="D10" t="n">
-        <v>11.6</v>
+        <v>17.6</v>
       </c>
       <c r="E10" t="n">
         <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>0.81</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11">
@@ -1216,22 +1213,22 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" t="n">
-        <v>118.6</v>
+        <v>77.9</v>
       </c>
       <c r="D11" t="n">
-        <v>19.8</v>
+        <v>18.7</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="12">
@@ -1239,27 +1236,27 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C12" t="n">
-        <v>123.3</v>
+        <v>130</v>
       </c>
       <c r="D12" t="n">
-        <v>46.3</v>
+        <v>34.1</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
@@ -1279,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1314,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1375,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1409,7 +1406,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -1417,316 +1414,316 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0.826536321770875</v>
+        <v>0.307495064705295</v>
       </c>
       <c r="C24" t="n">
-        <v>1.080978781031</v>
+        <v>0.265444449204094</v>
       </c>
       <c r="D24" t="n">
-        <v>0.321019128942032</v>
+        <v>0.565182492290954</v>
       </c>
       <c r="E24" t="n">
-        <v>0.592982458708359</v>
+        <v>0.6163358596076</v>
       </c>
       <c r="F24" t="n">
-        <v>0.658392002172752</v>
+        <v>0.356547473085366</v>
       </c>
       <c r="G24" t="n">
-        <v>0.82359268905779</v>
+        <v>0.286546132539317</v>
       </c>
       <c r="H24" t="n">
-        <v>0.838419014331106</v>
+        <v>0.511278292300107</v>
       </c>
       <c r="I24" t="n">
-        <v>1.03751247951114</v>
+        <v>0.424920225423354</v>
       </c>
       <c r="J24" t="n">
-        <v>0.815109424469707</v>
+        <v>0.222744615390522</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.826536321770875</v>
+        <v>0.307495064705295</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.254444552093942</v>
+        <v>0.49839216488521</v>
       </c>
       <c r="D25" t="n">
-        <v>0.571132679349034</v>
+        <v>0.257726295162038</v>
       </c>
       <c r="E25" t="n">
-        <v>0.298388663351386</v>
+        <v>0.469181100354074</v>
       </c>
       <c r="F25" t="n">
-        <v>0.287076054672155</v>
+        <v>0.614549695595166</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7803512153269</v>
+        <v>0.575554578904836</v>
       </c>
       <c r="H25" t="n">
-        <v>0.377062174494826</v>
+        <v>0.666750850265808</v>
       </c>
       <c r="I25" t="n">
-        <v>0.32323341950425</v>
+        <v>0.293278889028534</v>
       </c>
       <c r="J25" t="n">
-        <v>0.105586728622076</v>
+        <v>0.281666137032921</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.080978781031</v>
+        <v>0.265444449204094</v>
       </c>
       <c r="B26" t="n">
-        <v>0.254444552093942</v>
+        <v>0.49839216488521</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.818724094421991</v>
+        <v>0.738856088530649</v>
       </c>
       <c r="E26" t="n">
-        <v>0.531863229760338</v>
+        <v>0.594851292369859</v>
       </c>
       <c r="F26" t="n">
-        <v>0.498901890953895</v>
+        <v>0.12016902745384</v>
       </c>
       <c r="G26" t="n">
-        <v>0.927914053757607</v>
+        <v>0.147088111207692</v>
       </c>
       <c r="H26" t="n">
-        <v>0.495447075302292</v>
+        <v>0.262491639223488</v>
       </c>
       <c r="I26" t="n">
-        <v>0.28227384979577</v>
+        <v>0.447814835674035</v>
       </c>
       <c r="J26" t="n">
-        <v>0.292135032039272</v>
+        <v>0.243114916430205</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.321019128942032</v>
+        <v>0.565182492290954</v>
       </c>
       <c r="B27" t="n">
-        <v>0.571132679349034</v>
+        <v>0.257726295162038</v>
       </c>
       <c r="C27" t="n">
-        <v>0.818724094421991</v>
+        <v>0.738856088530649</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.431463645662232</v>
+        <v>0.487319504511026</v>
       </c>
       <c r="F27" t="n">
-        <v>0.503943699213682</v>
+        <v>0.858078331153697</v>
       </c>
       <c r="G27" t="n">
-        <v>0.864682796707452</v>
+        <v>0.829067416022373</v>
       </c>
       <c r="H27" t="n">
-        <v>0.518504390267126</v>
+        <v>0.865809300759065</v>
       </c>
       <c r="I27" t="n">
-        <v>0.842185379368001</v>
+        <v>0.394970486216533</v>
       </c>
       <c r="J27" t="n">
-        <v>0.533111177852508</v>
+        <v>0.502265788463691</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.592982458708359</v>
+        <v>0.6163358596076</v>
       </c>
       <c r="B28" t="n">
-        <v>0.298388663351386</v>
+        <v>0.469181100354074</v>
       </c>
       <c r="C28" t="n">
-        <v>0.531863229760338</v>
+        <v>0.594851292369859</v>
       </c>
       <c r="D28" t="n">
-        <v>0.431463645662232</v>
+        <v>0.487319504511026</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0726725511378427</v>
+        <v>0.698360598437315</v>
       </c>
       <c r="G28" t="n">
-        <v>0.543167548368289</v>
+        <v>0.737672509890295</v>
       </c>
       <c r="H28" t="n">
-        <v>0.555719658474488</v>
+        <v>0.558560104744348</v>
       </c>
       <c r="I28" t="n">
-        <v>0.444530497613756</v>
+        <v>0.195087887846891</v>
       </c>
       <c r="J28" t="n">
-        <v>0.351305433960411</v>
+        <v>0.403658998470955</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.658392002172752</v>
+        <v>0.356547473085366</v>
       </c>
       <c r="B29" t="n">
-        <v>0.287076054672155</v>
+        <v>0.614549695595166</v>
       </c>
       <c r="C29" t="n">
-        <v>0.498901890953895</v>
+        <v>0.12016902745384</v>
       </c>
       <c r="D29" t="n">
-        <v>0.503943699213682</v>
+        <v>0.858078331153697</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0726725511378427</v>
+        <v>0.698360598437315</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.51056023555488</v>
+        <v>0.113074329274461</v>
       </c>
       <c r="H29" t="n">
-        <v>0.588623733472875</v>
+        <v>0.263823036639778</v>
       </c>
       <c r="I29" t="n">
-        <v>0.381503571119458</v>
+        <v>0.562753411040076</v>
       </c>
       <c r="J29" t="n">
-        <v>0.359105615672453</v>
+        <v>0.363161141069423</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.82359268905779</v>
+        <v>0.286546132539317</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7803512153269</v>
+        <v>0.575554578904836</v>
       </c>
       <c r="C30" t="n">
-        <v>0.927914053757607</v>
+        <v>0.147088111207692</v>
       </c>
       <c r="D30" t="n">
-        <v>0.864682796707452</v>
+        <v>0.829067416022373</v>
       </c>
       <c r="E30" t="n">
-        <v>0.543167548368289</v>
+        <v>0.737672509890295</v>
       </c>
       <c r="F30" t="n">
-        <v>0.51056023555488</v>
+        <v>0.113074329274461</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1.09711320409586</v>
+        <v>0.368991242881613</v>
       </c>
       <c r="I30" t="n">
-        <v>0.685455723299163</v>
+        <v>0.580167707950934</v>
       </c>
       <c r="J30" t="n">
-        <v>0.865711395659972</v>
+        <v>0.361603972884192</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.838419014331106</v>
+        <v>0.511278292300107</v>
       </c>
       <c r="B31" t="n">
-        <v>0.377062174494826</v>
+        <v>0.666750850265808</v>
       </c>
       <c r="C31" t="n">
-        <v>0.495447075302292</v>
+        <v>0.262491639223488</v>
       </c>
       <c r="D31" t="n">
-        <v>0.518504390267126</v>
+        <v>0.865809300759065</v>
       </c>
       <c r="E31" t="n">
-        <v>0.555719658474488</v>
+        <v>0.558560104744348</v>
       </c>
       <c r="F31" t="n">
-        <v>0.588623733472875</v>
+        <v>0.263823036639778</v>
       </c>
       <c r="G31" t="n">
-        <v>1.09711320409586</v>
+        <v>0.368991242881613</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.688201216731445</v>
+        <v>0.492761357964893</v>
       </c>
       <c r="J31" t="n">
-        <v>0.271522910793519</v>
+        <v>0.3858505570015</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.03751247951114</v>
+        <v>0.424920225423354</v>
       </c>
       <c r="B32" t="n">
-        <v>0.32323341950425</v>
+        <v>0.293278889028534</v>
       </c>
       <c r="C32" t="n">
-        <v>0.28227384979577</v>
+        <v>0.447814835674035</v>
       </c>
       <c r="D32" t="n">
-        <v>0.842185379368001</v>
+        <v>0.394970486216533</v>
       </c>
       <c r="E32" t="n">
-        <v>0.444530497613756</v>
+        <v>0.195087887846891</v>
       </c>
       <c r="F32" t="n">
-        <v>0.381503571119458</v>
+        <v>0.562753411040076</v>
       </c>
       <c r="G32" t="n">
-        <v>0.685455723299163</v>
+        <v>0.580167707950934</v>
       </c>
       <c r="H32" t="n">
-        <v>0.688201216731445</v>
+        <v>0.492761357964893</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.422528442079233</v>
+        <v>0.224163460386833</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.815109424469707</v>
+        <v>0.222744615390522</v>
       </c>
       <c r="B33" t="n">
-        <v>0.105586728622076</v>
+        <v>0.281666137032921</v>
       </c>
       <c r="C33" t="n">
-        <v>0.292135032039272</v>
+        <v>0.243114916430205</v>
       </c>
       <c r="D33" t="n">
-        <v>0.533111177852508</v>
+        <v>0.502265788463691</v>
       </c>
       <c r="E33" t="n">
-        <v>0.351305433960411</v>
+        <v>0.403658998470955</v>
       </c>
       <c r="F33" t="n">
-        <v>0.359105615672453</v>
+        <v>0.363161141069423</v>
       </c>
       <c r="G33" t="n">
-        <v>0.865711395659972</v>
+        <v>0.361603972884192</v>
       </c>
       <c r="H33" t="n">
-        <v>0.271522910793519</v>
+        <v>0.3858505570015</v>
       </c>
       <c r="I33" t="n">
-        <v>0.422528442079233</v>
+        <v>0.224163460386833</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1734,7 +1731,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
@@ -1745,13 +1742,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1762,10 +1759,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1810,16 +1807,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1833,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1853,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1861,13 +1858,13 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1881,13 +1878,13 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1895,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1909,55 +1906,55 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1978,23 +1975,23 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63">
@@ -2013,10 +2010,10 @@
         <v>12</v>
       </c>
       <c r="B64" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C64" t="n">
-        <v>7.27572239446454</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
@@ -2024,10 +2021,10 @@
         <v>14</v>
       </c>
       <c r="B65" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C65" t="n">
-        <v>33.9533711741678</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
@@ -2035,21 +2032,21 @@
         <v>15</v>
       </c>
       <c r="B66" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C66" t="n">
-        <v>10.9135835916968</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B67" t="n">
+        <v>12</v>
+      </c>
+      <c r="C67" t="n">
         <v>13</v>
-      </c>
-      <c r="C67" t="n">
-        <v>15.7640651880065</v>
       </c>
     </row>
     <row r="68">
@@ -2057,10 +2054,10 @@
         <v>18</v>
       </c>
       <c r="B68" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C68" t="n">
-        <v>30.3155099769356</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="69">
@@ -2068,10 +2065,10 @@
         <v>19</v>
       </c>
       <c r="B69" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C69" t="n">
-        <v>12.1262039907742</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="70">
@@ -2079,10 +2076,10 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C70" t="n">
-        <v>32.7407507750904</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="71">
@@ -2090,10 +2087,10 @@
         <v>21</v>
       </c>
       <c r="B71" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C71" t="n">
-        <v>33.9533711741678</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="72">
@@ -2101,10 +2098,10 @@
         <v>22</v>
       </c>
       <c r="B72" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C72" t="n">
-        <v>30.3155099769356</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="73">
@@ -2115,12 +2112,12 @@
         <v>13</v>
       </c>
       <c r="C73" t="n">
-        <v>15.7640651880065</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77">
@@ -2128,28 +2125,28 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -2178,28 +2175,28 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -2228,25 +2225,25 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
@@ -2261,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="O79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2284,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -2299,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -2316,13 +2313,13 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
@@ -2343,10 +2340,10 @@
         <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -2378,19 +2375,19 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -2419,48 +2416,48 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -2478,22 +2475,22 @@
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -2507,19 +2504,19 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>1</v>
@@ -2528,19 +2525,19 @@
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -2551,37 +2548,37 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -2595,23 +2592,23 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" t="s">
         <v>39</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>40</v>
-      </c>
-      <c r="C90" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B91" t="n">
         <v>13.5</v>
@@ -2622,7 +2619,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B92" t="n">
         <v>13.5</v>

--- a/input/data yang dibutuhkan.xlsx
+++ b/input/data yang dibutuhkan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">armada</t>
   </si>
@@ -54,40 +54,70 @@
     <t xml:space="preserve">supplied</t>
   </si>
   <si>
-    <t xml:space="preserve">toko saajid</t>
+    <t xml:space="preserve">toko dominiqua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ciawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko emilio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko wisaam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko hafsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko miguel</t>
   </si>
   <si>
     <t xml:space="preserve">cibitung</t>
   </si>
   <si>
-    <t xml:space="preserve">toko austin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko jesse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ciawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko julian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko lacrisha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko jacob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko aliyah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko heavan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko angelique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toko tanandorn</t>
+    <t xml:space="preserve">toko marisol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko vyktoreya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko meagan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko nicholas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko madeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko tiffanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko andrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko anatacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko adham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko cierra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko thaleia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko elizabeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko amru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko lizbeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toko nizhoni</t>
   </si>
   <si>
     <t xml:space="preserve">order_kubikasi</t>
@@ -102,34 +132,25 @@
     <t xml:space="preserve">tanggal_kirim_max</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
     <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">site</t>
@@ -528,22 +549,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>33.4</v>
+        <v>32.2</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -551,13 +572,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>29.9</v>
+        <v>34.9</v>
       </c>
       <c r="D3" t="n">
-        <v>4.4</v>
+        <v>11.8</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -566,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
@@ -574,22 +595,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>38.4</v>
+        <v>29.2</v>
       </c>
       <c r="D4" t="n">
-        <v>17.6</v>
+        <v>28.2</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>0.75</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
@@ -597,22 +618,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>77.9</v>
+        <v>55.9</v>
       </c>
       <c r="D5" t="n">
-        <v>18.7</v>
+        <v>29.2</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6">
@@ -620,22 +641,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>130</v>
+        <v>52.4</v>
       </c>
       <c r="D6" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>
@@ -674,10 +695,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>0.309597585117444</v>
+        <v>0.234643165720627</v>
       </c>
       <c r="C2" t="n">
-        <v>0.285050303442404</v>
+        <v>0.51262982818298</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -691,13 +712,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.613641362870112</v>
+        <v>0.306654921500012</v>
       </c>
       <c r="C3" t="n">
-        <v>0.330991527065635</v>
+        <v>0.932837145170197</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -708,30 +729,30 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.141443371074274</v>
+        <v>0.822591594420373</v>
       </c>
       <c r="C4" t="n">
-        <v>0.490439971908927</v>
+        <v>0.536882712738588</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.869310907553881</v>
+        <v>0.665265065617859</v>
       </c>
       <c r="C5" t="n">
-        <v>0.363486559595913</v>
+        <v>0.617926520993933</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -739,19 +760,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.311431834474206</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.497937029227614</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.650160862598568</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.798749189823866</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -759,16 +780,16 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0213577596005052</v>
+        <v>0.286817881977186</v>
       </c>
       <c r="C7" t="n">
-        <v>0.494916697964072</v>
+        <v>0.0244884418789297</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -776,16 +797,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0404844044242054</v>
+        <v>0.58312672493048</v>
       </c>
       <c r="C8" t="n">
-        <v>0.383471754612401</v>
+        <v>0.210487723816186</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -793,13 +814,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0938581724185497</v>
+        <v>0.7970946803689</v>
       </c>
       <c r="C9" t="n">
-        <v>0.748582392930984</v>
+        <v>0.879518387140706</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -810,16 +831,16 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.569810399319977</v>
+        <v>0.943692496279255</v>
       </c>
       <c r="C10" t="n">
-        <v>0.620976618723944</v>
+        <v>0.211362011730671</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -827,16 +848,186 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.384518886916339</v>
+        <v>0.636916472809389</v>
       </c>
       <c r="C11" t="n">
-        <v>0.49481675028801</v>
+        <v>0.372885726159438</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.61581167136319</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.51427911920473</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.352058040210977</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.561070771887898</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.451590269105509</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.266050330828875</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.423757617361844</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.879442068515345</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.155858627986163</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.483496078290045</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.633314156904817</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.729011427378282</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.279814544599503</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.327625331934541</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0159861871507019</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.355073665035889</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.495972736738622</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4719731179066</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.465912618674338</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0712972481269389</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -858,16 +1049,16 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -875,16 +1066,16 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>22.6</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -892,16 +1083,16 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -909,50 +1100,50 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>14.1</v>
+        <v>6.8</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>15.8</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>19.5</v>
+        <v>29.3</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -960,16 +1151,16 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>17.4</v>
+        <v>5.6</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -977,16 +1168,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>11.9</v>
+        <v>21.4</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -994,16 +1185,16 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>17.4</v>
+        <v>5.6</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -1011,16 +1202,16 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>15.2</v>
+        <v>33.8</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -1028,16 +1219,186 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>14.1</v>
+        <v>32.7</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="n">
+        <v>22</v>
+      </c>
+      <c r="C12" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="n">
+        <v>26</v>
+      </c>
+      <c r="C13" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="n">
+        <v>22</v>
+      </c>
+      <c r="C14" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="n">
+        <v>27</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="n">
+        <v>30</v>
+      </c>
+      <c r="C16" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="n">
+        <v>22</v>
+      </c>
+      <c r="C17" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="n">
+        <v>28</v>
+      </c>
+      <c r="C19" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="n">
+        <v>28</v>
+      </c>
+      <c r="C20" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>33</v>
+      </c>
+      <c r="B21" t="n">
+        <v>23</v>
+      </c>
+      <c r="C21" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1056,18 +1417,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
         <v>13.5</v>
@@ -1078,7 +1439,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>13.5</v>
@@ -1103,17 +1464,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -1144,22 +1505,22 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>33.4</v>
+        <v>32.2</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="9">
@@ -1167,13 +1528,13 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>29.9</v>
+        <v>34.9</v>
       </c>
       <c r="D9" t="n">
-        <v>4.4</v>
+        <v>11.8</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1182,7 +1543,7 @@
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="10">
@@ -1190,22 +1551,22 @@
         <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>38.4</v>
+        <v>29.2</v>
       </c>
       <c r="D10" t="n">
-        <v>17.6</v>
+        <v>28.2</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>0.75</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="11">
@@ -1213,22 +1574,22 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>77.9</v>
+        <v>55.9</v>
       </c>
       <c r="D11" t="n">
-        <v>18.7</v>
+        <v>29.2</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12">
@@ -1236,27 +1597,27 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>130</v>
+        <v>52.4</v>
       </c>
       <c r="D12" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -1279,13 +1640,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1334,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1372,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1398,15 +1759,15 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -1414,499 +1775,1295 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0.307495064705295</v>
+        <v>0.426333064891787</v>
       </c>
       <c r="C24" t="n">
-        <v>0.265444449204094</v>
+        <v>0.588448432082004</v>
       </c>
       <c r="D24" t="n">
-        <v>0.565182492290954</v>
+        <v>0.443308712059696</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6163358596076</v>
+        <v>0.0781816985623216</v>
       </c>
       <c r="F24" t="n">
-        <v>0.356547473085366</v>
+        <v>0.490921800330045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.286546132539317</v>
+        <v>0.461227321687216</v>
       </c>
       <c r="H24" t="n">
-        <v>0.511278292300107</v>
+        <v>0.671534750421908</v>
       </c>
       <c r="I24" t="n">
-        <v>0.424920225423354</v>
+        <v>0.770398111625139</v>
       </c>
       <c r="J24" t="n">
-        <v>0.222744615390522</v>
+        <v>0.425854702506026</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.38117207381268</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.12701487227332</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.32843187144748</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.412692979680061</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.0839986831376377</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.453607270314421</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.190439274053326</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.269508476347149</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.264473274224348</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.498256967927626</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.307495064705295</v>
+        <v>0.426333064891787</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.49839216488521</v>
+        <v>0.650361870827595</v>
       </c>
       <c r="D25" t="n">
-        <v>0.257726295162038</v>
+        <v>0.477252487351619</v>
       </c>
       <c r="E25" t="n">
-        <v>0.469181100354074</v>
+        <v>0.434926349793197</v>
       </c>
       <c r="F25" t="n">
-        <v>0.614549695595166</v>
+        <v>0.908565283789754</v>
       </c>
       <c r="G25" t="n">
-        <v>0.575554578904836</v>
+        <v>0.773450285811938</v>
       </c>
       <c r="H25" t="n">
-        <v>0.666750850265808</v>
+        <v>0.493329552162832</v>
       </c>
       <c r="I25" t="n">
-        <v>0.293278889028534</v>
+        <v>0.962467266899088</v>
       </c>
       <c r="J25" t="n">
-        <v>0.281666137032921</v>
+        <v>0.650090981267575</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.520354414880927</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.374528609711134</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.682356879327068</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.128701498006379</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.473969320233396</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.385033997601044</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.605806689226977</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.646760351370689</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.498233767214088</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.876135838957965</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.265444449204094</v>
+        <v>0.588448432082004</v>
       </c>
       <c r="B26" t="n">
-        <v>0.49839216488521</v>
+        <v>0.650361870827595</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.738856088530649</v>
+        <v>0.17697382722193</v>
       </c>
       <c r="E26" t="n">
-        <v>0.594851292369859</v>
+        <v>0.512641264874727</v>
       </c>
       <c r="F26" t="n">
-        <v>0.12016902745384</v>
+        <v>0.741351036793608</v>
       </c>
       <c r="G26" t="n">
-        <v>0.147088111207692</v>
+        <v>0.404817381683972</v>
       </c>
       <c r="H26" t="n">
-        <v>0.262491639223488</v>
+        <v>0.343583029265332</v>
       </c>
       <c r="I26" t="n">
-        <v>0.447814835674035</v>
+        <v>0.347317081664177</v>
       </c>
       <c r="J26" t="n">
-        <v>0.243114916430205</v>
+        <v>0.247730220991093</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.208011680009029</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.471154844867733</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.459338831883692</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.525752273876691</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.668866938387528</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.269702412561616</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.581717781431183</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.826841467793697</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.333006206690784</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.586506365350698</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.565182492290954</v>
+        <v>0.443308712059696</v>
       </c>
       <c r="B27" t="n">
-        <v>0.257726295162038</v>
+        <v>0.477252487351619</v>
       </c>
       <c r="C27" t="n">
-        <v>0.738856088530649</v>
+        <v>0.17697382722193</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.487319504511026</v>
+        <v>0.373624722945227</v>
       </c>
       <c r="F27" t="n">
-        <v>0.858078331153697</v>
+        <v>0.703840198162383</v>
       </c>
       <c r="G27" t="n">
-        <v>0.829067416022373</v>
+        <v>0.415635754545401</v>
       </c>
       <c r="H27" t="n">
-        <v>0.865809300759065</v>
+        <v>0.292932333072946</v>
       </c>
       <c r="I27" t="n">
-        <v>0.394970486216533</v>
+        <v>0.492764177205672</v>
       </c>
       <c r="J27" t="n">
-        <v>0.502265788463691</v>
+        <v>0.246675158553392</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.114840855539134</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.31832564610888</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.41167192261517</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.355972230881225</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.526845767398941</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.115588567747891</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.482542106476335</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.700467476696007</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.223522456344165</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.581846165285523</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.6163358596076</v>
+        <v>0.0781816985623216</v>
       </c>
       <c r="B28" t="n">
-        <v>0.469181100354074</v>
+        <v>0.434926349793197</v>
       </c>
       <c r="C28" t="n">
-        <v>0.594851292369859</v>
+        <v>0.512641264874727</v>
       </c>
       <c r="D28" t="n">
-        <v>0.487319504511026</v>
+        <v>0.373624722945227</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.698360598437315</v>
+        <v>0.474087978670616</v>
       </c>
       <c r="G28" t="n">
-        <v>0.737672509890295</v>
+        <v>0.395531562181274</v>
       </c>
       <c r="H28" t="n">
-        <v>0.558560104744348</v>
+        <v>0.617634789005066</v>
       </c>
       <c r="I28" t="n">
-        <v>0.195087887846891</v>
+        <v>0.694174895195391</v>
       </c>
       <c r="J28" t="n">
-        <v>0.403658998470955</v>
+        <v>0.34868048151744</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.304818222895851</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.07507568218046</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.270953552647986</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.397697342841581</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.156242003446425</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.396236806687638</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.173221613125696</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.328173843184648</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.18635844305974</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.453746422029662</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.356547473085366</v>
+        <v>0.490921800330045</v>
       </c>
       <c r="B29" t="n">
-        <v>0.614549695595166</v>
+        <v>0.908565283789754</v>
       </c>
       <c r="C29" t="n">
-        <v>0.12016902745384</v>
+        <v>0.741351036793608</v>
       </c>
       <c r="D29" t="n">
-        <v>0.858078331153697</v>
+        <v>0.703840198162383</v>
       </c>
       <c r="E29" t="n">
-        <v>0.698360598437315</v>
+        <v>0.474087978670616</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.113074329274461</v>
+        <v>0.349849486627457</v>
       </c>
       <c r="H29" t="n">
-        <v>0.263823036639778</v>
+        <v>0.995720150580099</v>
       </c>
       <c r="I29" t="n">
-        <v>0.562753411040076</v>
+        <v>0.682939228646023</v>
       </c>
       <c r="J29" t="n">
-        <v>0.363161141069423</v>
+        <v>0.493912634983889</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.590026966375121</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.540533879719138</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.292407396884949</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.865851138952869</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.477324141951362</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.785119293888289</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.303217777920447</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.4273597977025</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.493951706698</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.185110748080672</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.286546132539317</v>
+        <v>0.461227321687216</v>
       </c>
       <c r="B30" t="n">
-        <v>0.575554578904836</v>
+        <v>0.773450285811938</v>
       </c>
       <c r="C30" t="n">
-        <v>0.147088111207692</v>
+        <v>0.404817381683972</v>
       </c>
       <c r="D30" t="n">
-        <v>0.829067416022373</v>
+        <v>0.415635754545401</v>
       </c>
       <c r="E30" t="n">
-        <v>0.737672509890295</v>
+        <v>0.395531562181274</v>
       </c>
       <c r="F30" t="n">
-        <v>0.113074329274461</v>
+        <v>0.349849486627457</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.368991242881613</v>
+        <v>0.702413207750926</v>
       </c>
       <c r="I30" t="n">
-        <v>0.580167707950934</v>
+        <v>0.360566831319374</v>
       </c>
       <c r="J30" t="n">
-        <v>0.361603972884192</v>
+        <v>0.171074393589326</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.305544624622047</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.419882377164431</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.142790204527626</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.687676106709478</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.507041998535568</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.520946839402957</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.3251453489946</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.585280688209959</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.275627337142682</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.181970149277361</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.511278292300107</v>
+        <v>0.671534750421908</v>
       </c>
       <c r="B31" t="n">
-        <v>0.666750850265808</v>
+        <v>0.493329552162832</v>
       </c>
       <c r="C31" t="n">
-        <v>0.262491639223488</v>
+        <v>0.343583029265332</v>
       </c>
       <c r="D31" t="n">
-        <v>0.865809300759065</v>
+        <v>0.292932333072946</v>
       </c>
       <c r="E31" t="n">
-        <v>0.558560104744348</v>
+        <v>0.617634789005066</v>
       </c>
       <c r="F31" t="n">
-        <v>0.263823036639778</v>
+        <v>0.995720150580099</v>
       </c>
       <c r="G31" t="n">
-        <v>0.368991242881613</v>
+        <v>0.702413207750926</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.492761357964893</v>
+        <v>0.684049604656535</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3858505570015</v>
+        <v>0.531350836406548</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.407753911319772</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.547235319349229</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.704071270765594</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.373337070807692</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.753669253706694</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.222432922030659</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.75641568151804</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.940836194414949</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.506722381004408</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.873443167891862</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.424920225423354</v>
+        <v>0.770398111625139</v>
       </c>
       <c r="B32" t="n">
-        <v>0.293278889028534</v>
+        <v>0.962467266899088</v>
       </c>
       <c r="C32" t="n">
-        <v>0.447814835674035</v>
+        <v>0.347317081664177</v>
       </c>
       <c r="D32" t="n">
-        <v>0.394970486216533</v>
+        <v>0.492764177205672</v>
       </c>
       <c r="E32" t="n">
-        <v>0.195087887846891</v>
+        <v>0.694174895195391</v>
       </c>
       <c r="F32" t="n">
-        <v>0.562753411040076</v>
+        <v>0.682939228646023</v>
       </c>
       <c r="G32" t="n">
-        <v>0.580167707950934</v>
+        <v>0.360566831319374</v>
       </c>
       <c r="H32" t="n">
-        <v>0.492761357964893</v>
+        <v>0.684049604656535</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.224163460386833</v>
+        <v>0.346700791604013</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.446390646573256</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.68726090135982</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.495131714026831</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.846559649752028</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.833510140437295</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.603569077300309</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.67398152374626</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.938771556499578</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.518045491965101</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.497887285886614</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.222744615390522</v>
+        <v>0.425854702506026</v>
       </c>
       <c r="B33" t="n">
-        <v>0.281666137032921</v>
+        <v>0.650090981267575</v>
       </c>
       <c r="C33" t="n">
-        <v>0.243114916430205</v>
+        <v>0.247730220991093</v>
       </c>
       <c r="D33" t="n">
-        <v>0.502265788463691</v>
+        <v>0.246675158553392</v>
       </c>
       <c r="E33" t="n">
-        <v>0.403658998470955</v>
+        <v>0.34868048151744</v>
       </c>
       <c r="F33" t="n">
-        <v>0.363161141069423</v>
+        <v>0.493912634983889</v>
       </c>
       <c r="G33" t="n">
-        <v>0.361603972884192</v>
+        <v>0.171074393589326</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3858505570015</v>
+        <v>0.531350836406548</v>
       </c>
       <c r="I33" t="n">
-        <v>0.224163460386833</v>
+        <v>0.346700791604013</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
+      <c r="K33" t="n">
+        <v>0.142959799387603</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.341405826046139</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.213914944486658</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.549578043262922</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.493610474022203</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.356143919993714</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.359958734324661</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.621185712303212</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.172288850309129</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.346695728573343</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.38117207381268</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.520354414880927</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.208011680009029</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.114840855539134</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.304818222895851</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.590026966375121</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.305544624622047</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.407753911319772</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.446390646573256</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.142959799387603</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.267872052866289</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.297634339984525</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.41258785635011</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.460981992836753</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.215444427112135</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.384361425608447</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.620594060677229</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.12708724561414</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.467656566403804</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>46</v>
+      <c r="A35" t="n">
+        <v>0.12701487227332</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.374528609711134</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.471154844867733</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.31832564610888</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.07507568218046</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.540533879719138</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.419882377164431</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.547235319349229</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.68726090135982</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.341405826046139</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.267872052866289</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.311357873244558</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.326345080980019</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.210978772496579</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.327580626631427</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.244368361481558</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.394181555188425</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.169262612001633</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.50283294404235</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.32843187144748</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.682356879327068</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.459338831883692</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.41167192261517</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.270953552647986</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.292407396884949</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.142790204527626</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.704071270765594</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.495131714026831</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.213914944486658</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.297634339984525</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.311357873244558</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.614022866321045</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.367069280447286</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.497349523288325</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.182478437878906</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.444607771242276</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.210651365224777</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.195279013002112</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0.412692979680061</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0.128701498006379</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.525752273876691</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.355972230881225</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.397697342841581</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.865851138952869</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.687676106709478</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.373337070807692</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.846559649752028</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.549578043262922</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.41258785635011</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.326345080980019</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.614022866321045</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.478061811572525</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.257959921418296</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.570281789089353</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.664258806388018</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.413818763683807</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.809243532477255</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>0.0839986831376377</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0.473969320233396</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0.668866938387528</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.526845767398941</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.156242003446425</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.477324141951362</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.507041998535568</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.753669253706694</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.833510140437295</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.493610474022203</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.460981992836753</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.210978772496579</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.367069280447286</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.478061811572525</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.536881335802345</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.199150091219852</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.189885797076271</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.340309249930821</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.515791966522838</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>0.453607270314421</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.385033997601044</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.269702412561616</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.115588567747891</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.396236806687638</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.785119293888289</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.520946839402957</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.222432922030659</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.603569077300309</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.356143919993714</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.215444427112135</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.327580626631427</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.497349523288325</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.257959921418296</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.536881335802345</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.534857713336527</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.721750145373296</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.291429851301007</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.678683443580436</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>0.190439274053326</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0.605806689226977</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0.581717781431183</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.482542106476335</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0.173221613125696</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.303217777920447</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.3251453489946</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.75641568151804</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.67398152374626</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.359958734324661</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.384361425608447</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.244368361481558</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.182478437878906</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.570281789089353</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.199150091219852</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.534857713336527</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.265252357546875</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.259924310798139</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.316759498236185</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>0.269508476347149</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0.646760351370689</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0.826841467793697</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.700467476696007</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0.328173843184648</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.4273597977025</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.585280688209959</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.940836194414949</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.938771556499578</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.621185712303212</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.620594060677229</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.394181555188425</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.444607771242276</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.664258806388018</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.189885797076271</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.721750145373296</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.265252357546875</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.494016770835555</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.53194252375353</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>0.264473274224348</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0.498233767214088</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0.333006206690784</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.223522456344165</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.18635844305974</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.493951706698</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.275627337142682</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.506722381004408</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.518045491965101</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.172288850309129</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.12708724561414</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.169262612001633</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.210651365224777</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.413818763683807</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.340309249930821</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.291429851301007</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.259924310798139</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.494016770835555</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.401801895617389</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>0.498256967927626</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0.876135838957965</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0.586506365350698</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0.581846165285523</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
+        <v>0.453746422029662</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.185110748080672</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.181970149277361</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.873443167891862</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.497887285886614</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.346695728573343</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.467656566403804</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.50283294404235</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.195279013002112</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.809243532477255</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.515791966522838</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.678683443580436</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.316759498236185</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.53194252375353</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.401801895617389</v>
+      </c>
+      <c r="T43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>1</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s">
-        <v>47</v>
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1914,39 +3071,84 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1954,15 +3156,33 @@
         <v>1</v>
       </c>
       <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1970,15 +3190,33 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1986,325 +3224,227 @@
         <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s">
-        <v>48</v>
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" t="s">
-        <v>25</v>
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s">
-        <v>12</v>
+      <c r="A64" t="n">
+        <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s">
-        <v>14</v>
+      <c r="A65" t="n">
+        <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s">
-        <v>15</v>
+      <c r="A66" t="n">
+        <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>17</v>
-      </c>
-      <c r="B67" t="n">
-        <v>12</v>
-      </c>
-      <c r="C67" t="n">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>18</v>
-      </c>
-      <c r="B68" t="n">
-        <v>18</v>
-      </c>
-      <c r="C68" t="n">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" t="n">
-        <v>16</v>
-      </c>
-      <c r="C69" t="n">
-        <v>17.4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s">
-        <v>20</v>
+      <c r="A70" t="n">
+        <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>11</v>
-      </c>
-      <c r="C70" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s">
-        <v>21</v>
+      <c r="A71" t="n">
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>16</v>
-      </c>
-      <c r="C71" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s">
-        <v>22</v>
+      <c r="A72" t="n">
+        <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>14</v>
-      </c>
-      <c r="C72" t="n">
-        <v>15.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s">
-        <v>23</v>
+      <c r="A73" t="n">
+        <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>13</v>
-      </c>
-      <c r="C73" t="n">
-        <v>14.1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s">
-        <v>49</v>
+      <c r="A75" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" t="n">
-        <v>1</v>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="n">
-        <v>1</v>
-      </c>
-      <c r="O79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="n">
-        <v>1</v>
-      </c>
-      <c r="O80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2315,90 +3455,12 @@
       <c r="B81" t="n">
         <v>1</v>
       </c>
-      <c r="C81" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
-      <c r="K81" t="n">
-        <v>1</v>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2407,45 +3469,6 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="n">
-        <v>1</v>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="n">
-        <v>1</v>
-      </c>
-      <c r="O83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2454,92 +3477,14 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2548,83 +3493,769 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" t="n">
-        <v>1</v>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>38</v>
-      </c>
-      <c r="B90" t="s">
-        <v>39</v>
-      </c>
-      <c r="C90" t="s">
-        <v>40</v>
+      <c r="A88" t="n">
+        <v>1</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" t="n">
+        <v>20</v>
+      </c>
+      <c r="C94" t="n">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="n">
+        <v>23</v>
+      </c>
+      <c r="C95" t="n">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6</v>
+      </c>
+      <c r="C96" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
         <v>16</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B97" t="n">
+        <v>14</v>
+      </c>
+      <c r="C97" t="n">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="n">
+        <v>26</v>
+      </c>
+      <c r="C98" t="n">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5</v>
+      </c>
+      <c r="C99" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" t="n">
+        <v>19</v>
+      </c>
+      <c r="C100" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" t="n">
+        <v>30</v>
+      </c>
+      <c r="C102" t="n">
+        <v>33.8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" t="n">
+        <v>29</v>
+      </c>
+      <c r="C103" t="n">
+        <v>32.7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" t="n">
+        <v>22</v>
+      </c>
+      <c r="C104" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" t="n">
+        <v>26</v>
+      </c>
+      <c r="C105" t="n">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" t="n">
+        <v>22</v>
+      </c>
+      <c r="C106" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" t="n">
+        <v>27</v>
+      </c>
+      <c r="C107" t="n">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" t="n">
+        <v>30</v>
+      </c>
+      <c r="C108" t="n">
+        <v>33.8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>29</v>
+      </c>
+      <c r="B109" t="n">
+        <v>22</v>
+      </c>
+      <c r="C109" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" t="n">
+        <v>15</v>
+      </c>
+      <c r="C110" t="n">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111" t="n">
+        <v>28</v>
+      </c>
+      <c r="C111" t="n">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" t="n">
+        <v>28</v>
+      </c>
+      <c r="C112" t="n">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" t="n">
+        <v>23</v>
+      </c>
+      <c r="C113" t="n">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>45</v>
+      </c>
+      <c r="B140" t="s">
+        <v>46</v>
+      </c>
+      <c r="C140" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" t="n">
         <v>13.5</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C141" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" t="n">
+    <row r="142">
+      <c r="A142" t="s">
+        <v>18</v>
+      </c>
+      <c r="B142" t="n">
         <v>13.5</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C142" t="n">
         <v>10</v>
       </c>
     </row>
